--- a/온종일_돌봄/정훈_온종일_스케줄러.xlsx
+++ b/온종일_돌봄/정훈_온종일_스케줄러.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9696"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9696"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>작업이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -227,6 +227,22 @@
   </si>
   <si>
     <t>SW 구성도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 주차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 주차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 주차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -335,7 +351,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +382,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -673,7 +695,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -862,6 +884,60 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1147,14 +1223,16 @@
   <dimension ref="A1:BO122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="AQ6" sqref="AQ6:AU6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="30.3984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.8984375" style="1" customWidth="1"/>
-    <col min="3" max="80" width="3.69921875" style="1" customWidth="1"/>
+    <col min="3" max="12" width="3.69921875" style="1" customWidth="1"/>
+    <col min="13" max="17" width="3.69921875" style="66" customWidth="1"/>
+    <col min="18" max="80" width="3.69921875" style="1" customWidth="1"/>
     <col min="81" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
@@ -1321,51 +1399,59 @@
       <c r="B6" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="50"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="50"/>
-      <c r="AH6" s="51"/>
-      <c r="AI6" s="51"/>
-      <c r="AJ6" s="51"/>
-      <c r="AK6" s="52"/>
-      <c r="AL6" s="50"/>
-      <c r="AM6" s="51"/>
-      <c r="AN6" s="51"/>
-      <c r="AO6" s="51"/>
-      <c r="AP6" s="52"/>
-      <c r="AQ6" s="50"/>
-      <c r="AR6" s="51"/>
-      <c r="AS6" s="51"/>
-      <c r="AT6" s="51"/>
-      <c r="AU6" s="52"/>
+      <c r="C6" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="64"/>
+      <c r="AE6" s="64"/>
+      <c r="AF6" s="65"/>
+      <c r="AG6" s="63"/>
+      <c r="AH6" s="64"/>
+      <c r="AI6" s="64"/>
+      <c r="AJ6" s="64"/>
+      <c r="AK6" s="65"/>
+      <c r="AL6" s="63"/>
+      <c r="AM6" s="64"/>
+      <c r="AN6" s="64"/>
+      <c r="AO6" s="64"/>
+      <c r="AP6" s="65"/>
+      <c r="AQ6" s="63"/>
+      <c r="AR6" s="64"/>
+      <c r="AS6" s="64"/>
+      <c r="AT6" s="64"/>
+      <c r="AU6" s="65"/>
       <c r="AV6" s="50"/>
       <c r="AW6" s="51"/>
       <c r="AX6" s="51"/>
@@ -1420,19 +1506,19 @@
       <c r="L7" s="12">
         <v>16</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="70">
         <v>19</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="70">
         <v>20</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="70">
         <v>21</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="70">
         <v>22</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="71">
         <v>23</v>
       </c>
       <c r="R7" s="5">
@@ -1601,11 +1687,11 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="14"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="14"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="73"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
@@ -1674,11 +1760,11 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="18"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="18"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="75"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
@@ -1747,11 +1833,11 @@
       <c r="J10" s="11"/>
       <c r="K10" s="7"/>
       <c r="L10" s="18"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="18"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="75"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
@@ -1818,11 +1904,11 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="18"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="18"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="75"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -1886,14 +1972,14 @@
       <c r="G12" s="18"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
       <c r="L12" s="18"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="18"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="75"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -1960,11 +2046,11 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="18"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="18"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="75"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -2031,11 +2117,11 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="18"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="18"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="75"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -2102,11 +2188,11 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="18"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="18"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="75"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -2173,11 +2259,11 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="18"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="18"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="75"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
@@ -2244,11 +2330,11 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="18"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="18"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="75"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -2315,11 +2401,11 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="18"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="18"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="75"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
@@ -2386,11 +2472,11 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="18"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="18"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="75"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
@@ -2457,11 +2543,11 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="18"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="18"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="75"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
@@ -2528,11 +2614,11 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="18"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="18"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="75"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -2599,11 +2685,11 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="18"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="18"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="75"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -2670,11 +2756,11 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="18"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="18"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="75"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -2741,11 +2827,11 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="18"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="18"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="75"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -2812,11 +2898,11 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="18"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="18"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="75"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -2883,11 +2969,11 @@
       <c r="J26" s="44"/>
       <c r="K26" s="44"/>
       <c r="L26" s="47"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="47"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="75"/>
       <c r="R26" s="44"/>
       <c r="S26" s="44"/>
       <c r="T26" s="44"/>
@@ -2954,11 +3040,11 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="18"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="18"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="75"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -3025,11 +3111,11 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="18"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="18"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="75"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -3096,11 +3182,11 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="18"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="18"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="75"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -3167,11 +3253,11 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="18"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="18"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="75"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
@@ -3238,11 +3324,11 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="18"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="18"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="75"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
@@ -3309,11 +3395,11 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="18"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="18"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="75"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
@@ -3380,11 +3466,11 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="18"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="18"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="74"/>
+      <c r="Q33" s="75"/>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
@@ -3451,11 +3537,11 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="18"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="18"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="75"/>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
@@ -3522,11 +3608,11 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="18"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="18"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="75"/>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
@@ -3593,11 +3679,11 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="20"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="20"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="77"/>
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
       <c r="T36" s="8"/>
@@ -3664,11 +3750,11 @@
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="14"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="14"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="73"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
@@ -3735,11 +3821,11 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="18"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="18"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="75"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
@@ -3806,11 +3892,11 @@
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="18"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="18"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="75"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
@@ -3877,11 +3963,11 @@
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="18"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="18"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="74"/>
+      <c r="Q40" s="75"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
@@ -3948,11 +4034,11 @@
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="18"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="18"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="75"/>
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
@@ -4019,11 +4105,11 @@
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="18"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="18"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="75"/>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
@@ -4090,11 +4176,11 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="18"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="18"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="75"/>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
@@ -4161,11 +4247,11 @@
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="18"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="18"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="74"/>
+      <c r="P44" s="74"/>
+      <c r="Q44" s="75"/>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
@@ -4232,11 +4318,11 @@
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="18"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="18"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="74"/>
+      <c r="P45" s="74"/>
+      <c r="Q45" s="75"/>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
@@ -4303,11 +4389,11 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="18"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="18"/>
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
+      <c r="O46" s="74"/>
+      <c r="P46" s="74"/>
+      <c r="Q46" s="75"/>
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
       <c r="T46" s="7"/>
@@ -4374,11 +4460,11 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="18"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="18"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="74"/>
+      <c r="Q47" s="75"/>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
@@ -4445,11 +4531,11 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="18"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="18"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="74"/>
+      <c r="P48" s="74"/>
+      <c r="Q48" s="75"/>
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
@@ -4516,11 +4602,11 @@
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="18"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="18"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="74"/>
+      <c r="P49" s="74"/>
+      <c r="Q49" s="75"/>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
@@ -4587,11 +4673,11 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="18"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="18"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="74"/>
+      <c r="P50" s="74"/>
+      <c r="Q50" s="75"/>
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
       <c r="T50" s="7"/>
@@ -4658,11 +4744,11 @@
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="18"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="18"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
+      <c r="O51" s="74"/>
+      <c r="P51" s="74"/>
+      <c r="Q51" s="75"/>
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
@@ -4729,11 +4815,11 @@
       <c r="J52" s="42"/>
       <c r="K52" s="42"/>
       <c r="L52" s="43"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="43"/>
+      <c r="M52" s="78"/>
+      <c r="N52" s="78"/>
+      <c r="O52" s="78"/>
+      <c r="P52" s="78"/>
+      <c r="Q52" s="79"/>
       <c r="R52" s="42"/>
       <c r="S52" s="42"/>
       <c r="T52" s="42"/>
@@ -4821,11 +4907,11 @@
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="24"/>
+      <c r="M67" s="80"/>
+      <c r="N67" s="80"/>
+      <c r="O67" s="80"/>
+      <c r="P67" s="80"/>
+      <c r="Q67" s="80"/>
       <c r="R67" s="24"/>
       <c r="S67" s="24"/>
       <c r="T67" s="24"/>
@@ -4842,11 +4928,11 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="L68" s="24"/>
-      <c r="M68" s="24"/>
-      <c r="N68" s="24"/>
-      <c r="O68" s="24"/>
-      <c r="P68" s="24"/>
-      <c r="Q68" s="24"/>
+      <c r="M68" s="80"/>
+      <c r="N68" s="80"/>
+      <c r="O68" s="80"/>
+      <c r="P68" s="80"/>
+      <c r="Q68" s="80"/>
       <c r="R68" s="24"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
@@ -4863,11 +4949,11 @@
       <c r="A69" s="33"/>
       <c r="B69" s="2"/>
       <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="24"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="24"/>
+      <c r="M69" s="80"/>
+      <c r="N69" s="80"/>
+      <c r="O69" s="80"/>
+      <c r="P69" s="80"/>
+      <c r="Q69" s="80"/>
       <c r="R69" s="24"/>
       <c r="S69" s="24"/>
       <c r="T69" s="24"/>
@@ -4884,11 +4970,11 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="L70" s="24"/>
-      <c r="M70" s="24"/>
-      <c r="N70" s="24"/>
-      <c r="O70" s="24"/>
-      <c r="P70" s="24"/>
-      <c r="Q70" s="24"/>
+      <c r="M70" s="80"/>
+      <c r="N70" s="80"/>
+      <c r="O70" s="80"/>
+      <c r="P70" s="80"/>
+      <c r="Q70" s="80"/>
       <c r="R70" s="24"/>
       <c r="S70" s="24"/>
       <c r="T70" s="24"/>
@@ -4905,11 +4991,11 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="L71" s="24"/>
-      <c r="M71" s="24"/>
-      <c r="N71" s="24"/>
-      <c r="O71" s="24"/>
-      <c r="P71" s="24"/>
-      <c r="Q71" s="24"/>
+      <c r="M71" s="80"/>
+      <c r="N71" s="80"/>
+      <c r="O71" s="80"/>
+      <c r="P71" s="80"/>
+      <c r="Q71" s="80"/>
       <c r="R71" s="24"/>
       <c r="S71" s="24"/>
       <c r="T71" s="24"/>
@@ -4926,11 +5012,11 @@
       <c r="A72" s="27"/>
       <c r="B72" s="22"/>
       <c r="L72" s="24"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="24"/>
-      <c r="O72" s="24"/>
-      <c r="P72" s="24"/>
-      <c r="Q72" s="24"/>
+      <c r="M72" s="80"/>
+      <c r="N72" s="80"/>
+      <c r="O72" s="80"/>
+      <c r="P72" s="80"/>
+      <c r="Q72" s="80"/>
       <c r="R72" s="24"/>
       <c r="S72" s="24"/>
       <c r="T72" s="24"/>
@@ -4947,11 +5033,11 @@
       <c r="A73" s="30"/>
       <c r="B73" s="23"/>
       <c r="L73" s="24"/>
-      <c r="M73" s="24"/>
-      <c r="N73" s="24"/>
-      <c r="O73" s="24"/>
-      <c r="P73" s="24"/>
-      <c r="Q73" s="24"/>
+      <c r="M73" s="80"/>
+      <c r="N73" s="80"/>
+      <c r="O73" s="80"/>
+      <c r="P73" s="80"/>
+      <c r="Q73" s="80"/>
       <c r="R73" s="24"/>
       <c r="S73" s="24"/>
       <c r="T73" s="24"/>
@@ -4968,11 +5054,11 @@
       <c r="A74" s="30"/>
       <c r="B74" s="23"/>
       <c r="L74" s="24"/>
-      <c r="M74" s="24"/>
-      <c r="N74" s="24"/>
-      <c r="O74" s="24"/>
-      <c r="P74" s="24"/>
-      <c r="Q74" s="24"/>
+      <c r="M74" s="80"/>
+      <c r="N74" s="80"/>
+      <c r="O74" s="80"/>
+      <c r="P74" s="80"/>
+      <c r="Q74" s="80"/>
       <c r="R74" s="24"/>
       <c r="S74" s="24"/>
       <c r="T74" s="24"/>
@@ -4989,11 +5075,11 @@
       <c r="A75" s="32"/>
       <c r="B75" s="22"/>
       <c r="L75" s="24"/>
-      <c r="M75" s="24"/>
-      <c r="N75" s="24"/>
-      <c r="O75" s="24"/>
-      <c r="P75" s="24"/>
-      <c r="Q75" s="24"/>
+      <c r="M75" s="80"/>
+      <c r="N75" s="80"/>
+      <c r="O75" s="80"/>
+      <c r="P75" s="80"/>
+      <c r="Q75" s="80"/>
       <c r="R75" s="24"/>
       <c r="S75" s="24"/>
       <c r="T75" s="24"/>
@@ -5010,11 +5096,11 @@
       <c r="A76" s="30"/>
       <c r="B76" s="23"/>
       <c r="L76" s="24"/>
-      <c r="M76" s="24"/>
-      <c r="N76" s="24"/>
-      <c r="O76" s="24"/>
-      <c r="P76" s="24"/>
-      <c r="Q76" s="24"/>
+      <c r="M76" s="80"/>
+      <c r="N76" s="80"/>
+      <c r="O76" s="80"/>
+      <c r="P76" s="80"/>
+      <c r="Q76" s="80"/>
       <c r="R76" s="24"/>
       <c r="S76" s="24"/>
       <c r="T76" s="24"/>
@@ -5031,11 +5117,11 @@
       <c r="A77" s="2"/>
       <c r="B77" s="24"/>
       <c r="L77" s="24"/>
-      <c r="M77" s="24"/>
-      <c r="N77" s="24"/>
-      <c r="O77" s="24"/>
-      <c r="P77" s="24"/>
-      <c r="Q77" s="24"/>
+      <c r="M77" s="80"/>
+      <c r="N77" s="80"/>
+      <c r="O77" s="80"/>
+      <c r="P77" s="80"/>
+      <c r="Q77" s="80"/>
       <c r="R77" s="24"/>
       <c r="S77" s="24"/>
       <c r="T77" s="24"/>
@@ -5052,11 +5138,11 @@
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="L78" s="24"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="24"/>
-      <c r="P78" s="24"/>
-      <c r="Q78" s="24"/>
+      <c r="M78" s="80"/>
+      <c r="N78" s="80"/>
+      <c r="O78" s="80"/>
+      <c r="P78" s="80"/>
+      <c r="Q78" s="80"/>
       <c r="R78" s="24"/>
       <c r="S78" s="24"/>
       <c r="T78" s="24"/>
@@ -5073,11 +5159,11 @@
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="L79" s="24"/>
-      <c r="M79" s="24"/>
-      <c r="N79" s="24"/>
-      <c r="O79" s="24"/>
-      <c r="P79" s="24"/>
-      <c r="Q79" s="24"/>
+      <c r="M79" s="80"/>
+      <c r="N79" s="80"/>
+      <c r="O79" s="80"/>
+      <c r="P79" s="80"/>
+      <c r="Q79" s="80"/>
       <c r="R79" s="24"/>
       <c r="S79" s="24"/>
       <c r="T79" s="24"/>
@@ -5263,7 +5349,7 @@
       <c r="B122" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="16">
     <mergeCell ref="AQ5:BO5"/>
     <mergeCell ref="C1:BD1"/>
     <mergeCell ref="C5:V5"/>
@@ -5271,6 +5357,15 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A1:B5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="AB6:AF6"/>
+    <mergeCell ref="AG6:AK6"/>
+    <mergeCell ref="AL6:AP6"/>
+    <mergeCell ref="AQ6:AU6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
